--- a/SauceDemo/TestScenarios/TestScenarios.xlsx
+++ b/SauceDemo/TestScenarios/TestScenarios.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Documents\GitHub\QA-Portolio\SauceDemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Documents\GitHub\QA-Portolio\SauceDemo\TestScenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBE6E156-80F5-4F19-ADD3-B7026681956B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B51FD8CC-223B-4314-B591-31B7B901B58F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5088" xr2:uid="{40CE6357-F45D-4EBE-BCF1-4688B14FF024}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -70,14 +70,67 @@
   </si>
   <si>
     <t>Scenario</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Split into multiple negative cases</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>SC006</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>SC007</t>
+  </si>
+  <si>
+    <t>SC008</t>
+  </si>
+  <si>
+    <t>SC009</t>
+  </si>
+  <si>
+    <t>User sorts products in inventory page</t>
+  </si>
+  <si>
+    <t>Split into multiple type of sort methods</t>
+  </si>
+  <si>
+    <t>User removes products from cart</t>
+  </si>
+  <si>
+    <t>User resets application state from menu</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>User goes to about section from menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,13 +158,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -122,6 +195,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E777937E-94E3-4973-B3DB-61BBF2EF5559}" name="Tabela1" displayName="Tabela1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E1048576" xr:uid="{F4AE6884-74B1-43EC-ACE7-FD5F1B5C9B05}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DD7BA6D6-82B9-46D7-86BE-03C2414F4F9C}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{E262A6C7-7806-45F9-AD6C-8C3329BE6AE5}" name="Scenario"/>
+    <tableColumn id="3" xr3:uid="{3A66DDD7-224B-44B7-BEE5-EA63A20FB3BF}" name="Priority"/>
+    <tableColumn id="4" xr3:uid="{3919D18A-584B-4405-9BBB-7A8DDEF8D06F}" name="Status"/>
+    <tableColumn id="5" xr3:uid="{7747EFB0-AF8D-4A67-8697-728FDC419347}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,29 +514,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F632F795-4812-4967-88B8-3C2E367A1711}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="49.109375" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -453,8 +554,11 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -464,8 +568,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -475,8 +585,11 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -486,8 +599,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -497,8 +613,82 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{ED618A30-133D-410A-B1A5-54C1BB4D2AA7}">
+      <formula1>"Low, Medium, High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{D9290618-1608-4EE4-A191-A2450FCDEBF4}">
+      <formula1>"To Do, Done, Failed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/SauceDemo/TestScenarios/TestScenarios.xlsx
+++ b/SauceDemo/TestScenarios/TestScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Documents\GitHub\QA-Portolio\SauceDemo\TestScenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B51FD8CC-223B-4314-B591-31B7B901B58F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A8097AE0-DEF6-4BA0-9CD5-50174AAB17E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5088" xr2:uid="{40CE6357-F45D-4EBE-BCF1-4688B14FF024}"/>
   </bookViews>
@@ -165,7 +165,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -198,7 +240,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E777937E-94E3-4973-B3DB-61BBF2EF5559}" name="Tabela1" displayName="Tabela1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E777937E-94E3-4973-B3DB-61BBF2EF5559}" name="Tabela1" displayName="Tabela1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:E1048576" xr:uid="{F4AE6884-74B1-43EC-ACE7-FD5F1B5C9B05}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -213,7 +255,7 @@
     <tableColumn id="4" xr3:uid="{3919D18A-584B-4405-9BBB-7A8DDEF8D06F}" name="Status"/>
     <tableColumn id="5" xr3:uid="{7747EFB0-AF8D-4A67-8697-728FDC419347}" name="Notes"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -516,14 +558,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F632F795-4812-4967-88B8-3C2E367A1711}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="49.109375" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -677,6 +720,28 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{ED618A30-133D-410A-B1A5-54C1BB4D2AA7}">
       <formula1>"Low, Medium, High"</formula1>
@@ -686,7 +751,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/SauceDemo/TestScenarios/TestScenarios.xlsx
+++ b/SauceDemo/TestScenarios/TestScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Documents\GitHub\QA-Portolio\SauceDemo\TestScenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A8097AE0-DEF6-4BA0-9CD5-50174AAB17E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D481CE-A246-4D7B-907E-223F258E431C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5088" xr2:uid="{40CE6357-F45D-4EBE-BCF1-4688B14FF024}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>User completes a checkout successfully</t>
   </si>
   <si>
-    <t>User logs out from the inventory page</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -115,6 +112,12 @@
   </si>
   <si>
     <t>User goes to about section from menu</t>
+  </si>
+  <si>
+    <t>User logs out from the menu</t>
+  </si>
+  <si>
+    <t>BUG001</t>
   </si>
 </sst>
 </file>
@@ -167,6 +170,24 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -176,14 +197,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -208,24 +229,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -240,7 +243,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E777937E-94E3-4973-B3DB-61BBF2EF5559}" name="Tabela1" displayName="Tabela1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E777937E-94E3-4973-B3DB-61BBF2EF5559}" name="Tabela1" displayName="Tabela1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:E1048576" xr:uid="{F4AE6884-74B1-43EC-ACE7-FD5F1B5C9B05}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -559,7 +562,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,16 +578,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -595,10 +598,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -609,13 +612,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,10 +629,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -640,10 +643,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -651,94 +654,97 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SauceDemo/TestScenarios/TestScenarios.xlsx
+++ b/SauceDemo/TestScenarios/TestScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Documents\GitHub\QA-Portolio\SauceDemo\TestScenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D481CE-A246-4D7B-907E-223F258E431C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7C833EE-3E4C-4FFD-B123-45C213E63B33}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5088" xr2:uid="{40CE6357-F45D-4EBE-BCF1-4688B14FF024}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B1" sqref="B1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
